--- a/data/trans_orig/SE_ADU-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D66E2DC-7DD1-48A5-9B3D-907B3028E5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17BF376A-330B-4873-91A1-7908FBC3EE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C232BA9E-A8CB-4094-A10E-98DDAB212E7F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE625083-79A6-4E24-8208-DB7411537122}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="243">
   <si>
     <t>Sexo adulto elegido en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -92,10 +92,10 @@
     <t>48,62%</t>
   </si>
   <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
   </si>
   <si>
     <t>99,62%</t>
@@ -107,10 +107,10 @@
     <t>51,38%</t>
   </si>
   <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -125,489 +125,501 @@
     <t>45,96%</t>
   </si>
   <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Sexo adulto elegido en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>Sexo adulto elegido en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
     <t>43,19%</t>
   </si>
   <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Sexo adulto elegido en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>Sexo adulto elegido en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>48,45%</t>
   </si>
   <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>51,55%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>Sexo adulto elegido en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>Sexo adulto elegido en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
     <t>45,91%</t>
   </si>
   <si>
@@ -623,9 +635,6 @@
     <t>53,82%</t>
   </si>
   <si>
-    <t>49,84%</t>
-  </si>
-  <si>
     <t>58,26%</t>
   </si>
   <si>
@@ -639,9 +648,6 @@
   </si>
   <si>
     <t>41,74%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
   </si>
   <si>
     <t>99,77%</t>
@@ -1173,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C4CEB1-5E51-4F87-B1AB-6C04A8780624}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEE091E-0BBB-4012-87DC-54E4FF44D4B2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2275,7 +2281,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -2326,7 +2332,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>15</v>
@@ -2392,7 +2398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1042E03F-FECD-4653-93FF-3773008DA44C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4291E008-F020-47AC-8E7E-C6220981F045}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3014,10 +3020,10 @@
         <v>109</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,7 +3041,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -3053,7 +3059,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M14" s="7">
         <v>548</v>
@@ -3062,13 +3068,13 @@
         <v>614617</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,7 +3160,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -3166,13 +3172,13 @@
         <v>447800</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,7 +3214,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>393</v>
@@ -3217,13 +3223,13 @@
         <v>429429</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,7 +3315,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -3321,13 +3327,13 @@
         <v>742975</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,7 +3369,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>504</v>
@@ -3372,13 +3378,13 @@
         <v>559637</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3482,13 @@
         <v>3558309</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3533,13 @@
         <v>3426779</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,7 +3617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61A56C8-8EBD-45C3-B4B3-3420B76D6E9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395B861C-97AC-440D-8227-84242EF2DB99}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3628,7 +3634,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3753,7 +3759,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -3765,13 +3771,13 @@
         <v>395755</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,7 +3813,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
         <v>393</v>
@@ -3816,13 +3822,13 @@
         <v>419463</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,7 +3914,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -3920,13 +3926,13 @@
         <v>563544</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,7 +3968,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M8" s="7">
         <v>567</v>
@@ -3971,10 +3977,10 @@
         <v>590496</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>151</v>
@@ -4081,7 +4087,7 @@
         <v>154</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,7 +4105,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -4126,13 +4132,13 @@
         <v>669097</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,7 +4212,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H13" s="7">
         <v>602</v>
@@ -4230,13 +4236,13 @@
         <v>649077</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,7 +4260,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -4278,16 +4284,16 @@
         <v>582</v>
       </c>
       <c r="N14" s="7">
-        <v>646049</v>
+        <v>646048</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,7 +4335,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -4373,7 +4379,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -4385,13 +4391,13 @@
         <v>496849</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,7 +4433,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>424</v>
@@ -4436,13 +4442,13 @@
         <v>477918</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,10 +4546,10 @@
         <v>777931</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>174</v>
@@ -4591,13 +4597,13 @@
         <v>591328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4701,13 @@
         <v>3544542</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4752,13 @@
         <v>3394350</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,7 +4836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D779D21-406E-40C9-BA6D-5A938C6681ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E146D97-EB17-4A5C-9122-EDDCE6972CBA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4847,7 +4853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4960,7 +4966,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H4" s="7">
         <v>207</v>
@@ -4972,7 +4978,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4984,13 +4990,13 @@
         <v>354957</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,7 +5014,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -5026,7 +5032,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M5" s="7">
         <v>172</v>
@@ -5035,13 +5041,13 @@
         <v>377679</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,7 +5121,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H7" s="7">
         <v>461</v>
@@ -5127,7 +5133,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -5139,13 +5145,13 @@
         <v>499215</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,7 +5169,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
@@ -5181,7 +5187,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M8" s="7">
         <v>302</v>
@@ -5190,13 +5196,13 @@
         <v>428396</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,7 +5288,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -5294,13 +5300,13 @@
         <v>610447</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,7 +5324,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -5336,7 +5342,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>546</v>
@@ -5345,13 +5351,13 @@
         <v>557252</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,7 +5443,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -5449,13 +5455,13 @@
         <v>747261</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,7 +5497,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>665</v>
@@ -5500,13 +5506,13 @@
         <v>723990</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,7 +5598,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -5604,13 +5610,13 @@
         <v>597063</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,7 +5652,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M17" s="7">
         <v>663</v>
@@ -5655,13 +5661,13 @@
         <v>600157</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,7 +5741,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H19" s="7">
         <v>1708</v>
@@ -5747,7 +5753,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5759,13 +5765,13 @@
         <v>1026637</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,7 +5789,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>15</v>
@@ -5801,7 +5807,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>1028</v>
@@ -5810,13 +5816,13 @@
         <v>697755</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,7 +5908,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -5914,13 +5920,13 @@
         <v>3835580</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,7 +5962,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M23" s="7">
         <v>3376</v>
@@ -5965,13 +5971,13 @@
         <v>3385228</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/SE_ADU-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17BF376A-330B-4873-91A1-7908FBC3EE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{437C9D8D-0D53-4BF1-A33C-32528680F62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE625083-79A6-4E24-8208-DB7411537122}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0BDBD11-B129-4EE0-8BD4-FC8301C2CB0D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="241">
   <si>
     <t>Sexo adulto elegido en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -92,10 +92,10 @@
     <t>48,62%</t>
   </si>
   <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
   </si>
   <si>
     <t>99,62%</t>
@@ -107,10 +107,10 @@
     <t>51,38%</t>
   </si>
   <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -125,10 +125,10 @@
     <t>45,96%</t>
   </si>
   <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -140,10 +140,10 @@
     <t>54,04%</t>
   </si>
   <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -158,10 +158,10 @@
     <t>51,92%</t>
   </si>
   <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -173,10 +173,10 @@
     <t>48,08%</t>
   </si>
   <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -188,10 +188,10 @@
     <t>49,83%</t>
   </si>
   <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -200,10 +200,10 @@
     <t>50,17%</t>
   </si>
   <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -218,10 +218,10 @@
     <t>51,09%</t>
   </si>
   <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
   </si>
   <si>
     <t>99,51%</t>
@@ -233,10 +233,10 @@
     <t>48,91%</t>
   </si>
   <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -248,10 +248,10 @@
     <t>57,39%</t>
   </si>
   <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
   </si>
   <si>
     <t>99,63%</t>
@@ -260,10 +260,10 @@
     <t>42,61%</t>
   </si>
   <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -275,19 +275,13 @@
     <t>50,77%</t>
   </si>
   <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
+    <t>49,45%</t>
   </si>
   <si>
     <t>49,23%</t>
   </si>
   <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
+    <t>50,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -305,7 +299,10 @@
     <t>48,65%</t>
   </si>
   <si>
-    <t>45,08%</t>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -317,7 +314,10 @@
     <t>51,35%</t>
   </si>
   <si>
-    <t>54,92%</t>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
   </si>
   <si>
     <t>99,66%</t>
@@ -326,10 +326,10 @@
     <t>47,04%</t>
   </si>
   <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
   </si>
   <si>
     <t>0,34%</t>
@@ -338,28 +338,22 @@
     <t>52,96%</t>
   </si>
   <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -371,7 +365,10 @@
     <t>50,06%</t>
   </si>
   <si>
-    <t>53,1%</t>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -383,7 +380,10 @@
     <t>49,94%</t>
   </si>
   <si>
-    <t>46,9%</t>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -392,10 +392,10 @@
     <t>51,05%</t>
   </si>
   <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
   </si>
   <si>
     <t>0,47%</t>
@@ -404,10 +404,10 @@
     <t>48,95%</t>
   </si>
   <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
   </si>
   <si>
     <t>99,72%</t>
@@ -416,10 +416,10 @@
     <t>57,04%</t>
   </si>
   <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -428,28 +428,28 @@
     <t>42,96%</t>
   </si>
   <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
   </si>
   <si>
     <t>50,94%</t>
   </si>
   <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
   </si>
   <si>
     <t>49,06%</t>
   </si>
   <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
   </si>
   <si>
     <t>Sexo adulto elegido en 2016 (Tasa respuesta: 100,0%)</t>
@@ -458,19 +458,19 @@
     <t>48,55%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
   </si>
   <si>
     <t>51,45%</t>
   </si>
   <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -479,10 +479,10 @@
     <t>48,83%</t>
   </si>
   <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -491,10 +491,10 @@
     <t>51,17%</t>
   </si>
   <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -503,7 +503,7 @@
     <t>49,71%</t>
   </si>
   <si>
-    <t>47,01%</t>
+    <t>52,6%</t>
   </si>
   <si>
     <t>99,7%</t>
@@ -512,25 +512,25 @@
     <t>50,29%</t>
   </si>
   <si>
-    <t>52,99%</t>
+    <t>47,4%</t>
   </si>
   <si>
     <t>50,12%</t>
   </si>
   <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
   </si>
   <si>
     <t>49,88%</t>
   </si>
   <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
   </si>
   <si>
     <t>99,56%</t>
@@ -539,10 +539,7 @@
     <t>50,97%</t>
   </si>
   <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
+    <t>54,12%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -551,46 +548,43 @@
     <t>49,03%</t>
   </si>
   <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
+    <t>45,88%</t>
   </si>
   <si>
     <t>56,81%</t>
   </si>
   <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
   </si>
   <si>
     <t>43,19%</t>
   </si>
   <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
   </si>
   <si>
     <t>51,08%</t>
   </si>
   <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
   </si>
   <si>
     <t>48,92%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
   </si>
   <si>
     <t>Sexo adulto elegido en 2023 (Tasa respuesta: 100,0%)</t>
@@ -605,10 +599,10 @@
     <t>48,45%</t>
   </si>
   <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
   </si>
   <si>
     <t>98,89%</t>
@@ -620,10 +614,10 @@
     <t>51,55%</t>
   </si>
   <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
   </si>
   <si>
     <t>0,63%</t>
@@ -635,7 +629,10 @@
     <t>53,82%</t>
   </si>
   <si>
-    <t>58,26%</t>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
   </si>
   <si>
     <t>99,37%</t>
@@ -647,7 +644,10 @@
     <t>46,18%</t>
   </si>
   <si>
-    <t>41,74%</t>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
   </si>
   <si>
     <t>99,77%</t>
@@ -656,10 +656,10 @@
     <t>52,28%</t>
   </si>
   <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -668,10 +668,10 @@
     <t>47,72%</t>
   </si>
   <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -680,10 +680,10 @@
     <t>50,79%</t>
   </si>
   <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
   </si>
   <si>
     <t>0,17%</t>
@@ -692,10 +692,10 @@
     <t>49,21%</t>
   </si>
   <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
   </si>
   <si>
     <t>99,81%</t>
@@ -704,10 +704,10 @@
     <t>49,87%</t>
   </si>
   <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
   </si>
   <si>
     <t>0,19%</t>
@@ -716,10 +716,10 @@
     <t>50,13%</t>
   </si>
   <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -728,10 +728,10 @@
     <t>59,54%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
   </si>
   <si>
     <t>0,11%</t>
@@ -740,10 +740,10 @@
     <t>40,46%</t>
   </si>
   <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -752,10 +752,7 @@
     <t>53,12%</t>
   </si>
   <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
+    <t>55,44%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -764,10 +761,7 @@
     <t>46,88%</t>
   </si>
   <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
+    <t>44,56%</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEE091E-0BBB-4012-87DC-54E4FF44D4B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6BA081-4595-4F61-8ECF-FAD86C92E463}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2269,7 +2263,7 @@
         <v>78</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,7 +2275,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -2311,16 +2305,16 @@
         <v>3214</v>
       </c>
       <c r="N23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2326,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>15</v>
@@ -2362,7 +2356,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>15</v>
@@ -2376,7 +2370,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2398,7 +2392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4291E008-F020-47AC-8E7E-C6220981F045}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740EDCDF-E014-4546-A0F8-1DED858C57CD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2415,7 +2409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2528,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7">
         <v>421</v>
@@ -2540,7 +2534,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -2552,13 +2546,13 @@
         <v>430230</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,7 +2570,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -2594,7 +2588,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" s="7">
         <v>446</v>
@@ -2603,10 +2597,10 @@
         <v>454146</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>92</v>
@@ -2862,13 +2856,13 @@
         <v>710849</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,13 +2907,13 @@
         <v>681863</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,7 +2987,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H13" s="7">
         <v>539</v>
@@ -3005,7 +2999,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -3017,13 +3011,13 @@
         <v>616199</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,7 +3035,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -3059,7 +3053,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M14" s="7">
         <v>548</v>
@@ -3068,13 +3062,13 @@
         <v>614617</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,7 +3589,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3617,7 +3611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395B861C-97AC-440D-8227-84242EF2DB99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE0E9B6-49F5-46BD-B8E6-D314AF90D931}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4084,10 +4078,10 @@
         <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,10 +4129,10 @@
         <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,7 +4361,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>433</v>
@@ -4394,10 +4388,10 @@
         <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,7 +4409,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>15</v>
@@ -4433,7 +4427,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>424</v>
@@ -4442,13 +4436,13 @@
         <v>477918</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4540,13 @@
         <v>777931</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4591,13 @@
         <v>591328</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4695,13 @@
         <v>3544542</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4746,13 @@
         <v>3394350</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,7 +4808,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4836,7 +4830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E146D97-EB17-4A5C-9122-EDDCE6972CBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0070DC2A-65CF-417A-BECC-494F30BA812E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4853,7 +4847,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4966,7 +4960,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>207</v>
@@ -4978,7 +4972,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4990,13 +4984,13 @@
         <v>354957</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,7 +5008,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -5032,7 +5026,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M5" s="7">
         <v>172</v>
@@ -5041,13 +5035,13 @@
         <v>377679</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,7 +5115,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H7" s="7">
         <v>461</v>
@@ -5133,7 +5127,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -5145,13 +5139,13 @@
         <v>499215</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,7 +5163,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
@@ -5187,7 +5181,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>302</v>
@@ -5196,13 +5190,13 @@
         <v>428396</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,7 +5270,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H10" s="7">
         <v>848</v>
@@ -5324,7 +5318,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -5452,7 +5446,7 @@
         <v>1141</v>
       </c>
       <c r="N13" s="7">
-        <v>747261</v>
+        <v>747262</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>212</v>
@@ -5554,7 +5548,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -5783,7 +5777,7 @@
         <v>1028</v>
       </c>
       <c r="D20" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>13</v>
@@ -5834,7 +5828,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>15</v>
@@ -5917,16 +5911,16 @@
         <v>5367</v>
       </c>
       <c r="N22" s="7">
-        <v>3835580</v>
+        <v>3835581</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>236</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,7 +5956,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M23" s="7">
         <v>3376</v>
@@ -5971,13 +5965,13 @@
         <v>3385228</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>242</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,7 +6013,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>15</v>
@@ -6033,7 +6027,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/SE_ADU-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{437C9D8D-0D53-4BF1-A33C-32528680F62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F7A5671-4493-4E01-AFB5-D7CD53B4D9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0BDBD11-B129-4EE0-8BD4-FC8301C2CB0D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CDDE2885-373F-4504-9175-4621FB09DD92}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="282">
   <si>
     <t>Sexo adulto elegido en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -113,7 +113,7 @@
     <t>54,39%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -146,7 +146,7 @@
     <t>56,56%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -179,7 +179,7 @@
     <t>51,04%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -206,7 +206,7 @@
     <t>53,53%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -239,31 +239,70 @@
     <t>52,06%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -410,28 +449,64 @@
     <t>52,31%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
   </si>
   <si>
     <t>50,94%</t>
@@ -551,22 +626,52 @@
     <t>45,88%</t>
   </si>
   <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
   </si>
   <si>
     <t>51,08%</t>
@@ -596,172 +701,190 @@
     <t>99,08%</t>
   </si>
   <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
     <t>48,45%</t>
   </si>
   <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
   </si>
   <si>
     <t>99,96%</t>
   </si>
   <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
   </si>
 </sst>
 </file>
@@ -1173,8 +1296,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6BA081-4595-4F61-8ECF-FAD86C92E463}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535B4597-91FE-49B8-9979-F56F1DE453F8}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2081,34 +2204,34 @@
         <v>67</v>
       </c>
       <c r="H19" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I19" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M19" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="N19" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,16 +2240,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D20" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>15</v>
@@ -2144,22 +2267,22 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="M20" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="N20" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,10 +2291,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>15</v>
@@ -2183,10 +2306,10 @@
         <v>15</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>15</v>
@@ -2198,10 +2321,10 @@
         <v>15</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>15</v>
@@ -2215,7 +2338,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>2</v>
@@ -2233,37 +2356,37 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
-        <v>3297</v>
+        <v>290</v>
       </c>
       <c r="I22" s="7">
-        <v>3379198</v>
+        <v>333908</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M22" s="7">
-        <v>3297</v>
+        <v>290</v>
       </c>
       <c r="N22" s="7">
-        <v>3379197</v>
+        <v>333908</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,16 +2395,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="7">
-        <v>3214</v>
+        <v>220</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>209883</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>15</v>
@@ -2299,22 +2422,22 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="M23" s="7">
-        <v>3214</v>
+        <v>220</v>
       </c>
       <c r="N23" s="7">
-        <v>3276543</v>
+        <v>209883</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,63 +2446,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3297</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3214</v>
+      </c>
+      <c r="N26" s="7">
         <v>3276544</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="O26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>81</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2392,8 +2671,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740EDCDF-E014-4546-A0F8-1DED858C57CD}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21769BB0-DD7F-4FF3-AEBE-EC936ACC853F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2409,7 +2688,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2522,7 +2801,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H4" s="7">
         <v>421</v>
@@ -2534,7 +2813,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -2546,13 +2825,13 @@
         <v>430230</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,7 +2849,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -2588,7 +2867,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>446</v>
@@ -2597,13 +2876,13 @@
         <v>454146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,7 +2968,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -2701,13 +2980,13 @@
         <v>610255</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,7 +3022,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>667</v>
@@ -2752,13 +3031,13 @@
         <v>687087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,10 +3138,10 @@
         <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,10 +3189,10 @@
         <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,7 +3266,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="H13" s="7">
         <v>539</v>
@@ -2999,7 +3278,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -3011,13 +3290,13 @@
         <v>616199</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,7 +3314,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -3053,7 +3332,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>548</v>
@@ -3062,13 +3341,13 @@
         <v>614617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,7 +3433,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -3166,13 +3445,13 @@
         <v>447800</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,7 +3487,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="M17" s="7">
         <v>393</v>
@@ -3217,13 +3496,13 @@
         <v>429429</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,37 +3576,37 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I19" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M19" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="N19" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,16 +3615,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D20" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>15</v>
@@ -3363,22 +3642,22 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="N20" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,10 +3666,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>15</v>
@@ -3402,10 +3681,10 @@
         <v>15</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>15</v>
@@ -3417,10 +3696,10 @@
         <v>15</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>15</v>
@@ -3434,7 +3713,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>2</v>
@@ -3452,37 +3731,37 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
-        <v>3298</v>
+        <v>350</v>
       </c>
       <c r="I22" s="7">
-        <v>3558309</v>
+        <v>388979</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M22" s="7">
-        <v>3298</v>
+        <v>350</v>
       </c>
       <c r="N22" s="7">
-        <v>3558309</v>
+        <v>388979</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,16 +3770,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="7">
-        <v>3209</v>
+        <v>222</v>
       </c>
       <c r="D23" s="7">
-        <v>3426779</v>
+        <v>249851</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>15</v>
@@ -3518,22 +3797,22 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="M23" s="7">
-        <v>3209</v>
+        <v>222</v>
       </c>
       <c r="N23" s="7">
-        <v>3426779</v>
+        <v>249851</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,63 +3821,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3558309</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3298</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3558309</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3209</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>81</v>
+      <c r="O27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3611,8 +4046,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE0E9B6-49F5-46BD-B8E6-D314AF90D931}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65312E9-7DFF-4C1F-8905-D4D567883E42}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3628,7 +4063,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3753,7 +4188,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -3765,13 +4200,13 @@
         <v>395755</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,7 +4242,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>393</v>
@@ -3816,13 +4251,13 @@
         <v>419463</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,7 +4331,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
         <v>579</v>
@@ -3908,7 +4343,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -3920,13 +4355,13 @@
         <v>563544</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,7 +4379,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
@@ -3962,7 +4397,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>567</v>
@@ -3971,13 +4406,13 @@
         <v>590496</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,7 +4486,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>665</v>
@@ -4075,13 +4510,13 @@
         <v>661386</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,7 +4534,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -4126,10 +4561,10 @@
         <v>669097</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>50</v>
@@ -4206,7 +4641,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>602</v>
@@ -4230,13 +4665,13 @@
         <v>649077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,7 +4689,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -4281,13 +4716,13 @@
         <v>646048</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,7 +4796,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>433</v>
@@ -4373,7 +4808,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -4385,13 +4820,13 @@
         <v>496849</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,7 +4844,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>15</v>
@@ -4427,7 +4862,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>424</v>
@@ -4436,13 +4871,13 @@
         <v>477918</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,37 +4951,37 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I19" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M19" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="N19" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,16 +4990,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D20" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>15</v>
@@ -4582,22 +5017,22 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="M20" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="N20" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,10 +5041,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>15</v>
@@ -4621,10 +5056,10 @@
         <v>15</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>15</v>
@@ -4636,10 +5071,10 @@
         <v>15</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>15</v>
@@ -4653,7 +5088,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>2</v>
@@ -4671,37 +5106,37 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>3338</v>
+        <v>301</v>
       </c>
       <c r="I22" s="7">
-        <v>3544542</v>
+        <v>400169</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M22" s="7">
-        <v>3338</v>
+        <v>301</v>
       </c>
       <c r="N22" s="7">
-        <v>3544542</v>
+        <v>400169</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,16 +5145,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="7">
-        <v>3231</v>
+        <v>302</v>
       </c>
       <c r="D23" s="7">
-        <v>3394350</v>
+        <v>256998</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>15</v>
@@ -4737,22 +5172,22 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="M23" s="7">
-        <v>3231</v>
+        <v>302</v>
       </c>
       <c r="N23" s="7">
-        <v>3394350</v>
+        <v>256998</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,63 +5196,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3338</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3544542</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3338</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3544542</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3231</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3394350</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3231</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3394350</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>81</v>
+      <c r="O27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4830,8 +5421,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0070DC2A-65CF-417A-BECC-494F30BA812E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D546950-B6BA-46CD-91B6-30B93426DE46}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4847,7 +5438,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4960,19 +5551,19 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>207</v>
       </c>
       <c r="I4" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4981,16 +5572,16 @@
         <v>207</v>
       </c>
       <c r="N4" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +5593,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -5026,22 +5617,22 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="M5" s="7">
         <v>172</v>
       </c>
       <c r="N5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,7 +5644,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -5068,7 +5659,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -5083,7 +5674,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>15</v>
@@ -5115,19 +5706,19 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="H7" s="7">
         <v>461</v>
       </c>
       <c r="I7" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -5136,16 +5727,16 @@
         <v>461</v>
       </c>
       <c r="N7" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5748,13 @@
         <v>302</v>
       </c>
       <c r="D8" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
@@ -5181,22 +5772,22 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>302</v>
       </c>
       <c r="N8" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,7 +5799,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -5223,7 +5814,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -5238,7 +5829,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -5270,19 +5861,19 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="H10" s="7">
         <v>848</v>
       </c>
       <c r="I10" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -5291,16 +5882,16 @@
         <v>848</v>
       </c>
       <c r="N10" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5903,13 @@
         <v>546</v>
       </c>
       <c r="D11" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -5336,22 +5927,22 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="M11" s="7">
         <v>546</v>
       </c>
       <c r="N11" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,7 +5954,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -5378,7 +5969,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -5393,7 +5984,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -5431,13 +6022,13 @@
         <v>1141</v>
       </c>
       <c r="I13" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -5446,16 +6037,16 @@
         <v>1141</v>
       </c>
       <c r="N13" s="7">
-        <v>747262</v>
+        <v>712881</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,7 +6058,7 @@
         <v>665</v>
       </c>
       <c r="D14" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>13</v>
@@ -5491,22 +6082,22 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>665</v>
       </c>
       <c r="N14" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,7 +6109,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -5533,7 +6124,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -5548,7 +6139,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -5586,13 +6177,13 @@
         <v>1002</v>
       </c>
       <c r="I16" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -5601,16 +6192,16 @@
         <v>1002</v>
       </c>
       <c r="N16" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,7 +6213,7 @@
         <v>663</v>
       </c>
       <c r="D17" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>13</v>
@@ -5646,22 +6237,22 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>663</v>
       </c>
       <c r="N17" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,7 +6264,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>15</v>
@@ -5688,7 +6279,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -5703,7 +6294,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>15</v>
@@ -5735,37 +6326,37 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I19" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M19" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="N19" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,16 +6365,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D20" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>15</v>
@@ -5801,22 +6392,22 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="N20" s="7">
-        <v>697755</v>
+        <v>368165</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,10 +6416,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>15</v>
@@ -5840,10 +6431,10 @@
         <v>15</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>15</v>
@@ -5855,10 +6446,10 @@
         <v>15</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>15</v>
@@ -5872,7 +6463,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>2</v>
@@ -5890,37 +6481,37 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
-        <v>5367</v>
+        <v>881</v>
       </c>
       <c r="I22" s="7">
-        <v>3835581</v>
+        <v>425831</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M22" s="7">
-        <v>5367</v>
+        <v>881</v>
       </c>
       <c r="N22" s="7">
-        <v>3835581</v>
+        <v>425831</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>21</v>
+        <v>268</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,16 +6520,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="7">
-        <v>3376</v>
+        <v>458</v>
       </c>
       <c r="D23" s="7">
-        <v>3385228</v>
+        <v>282759</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>15</v>
@@ -5956,22 +6547,22 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="M23" s="7">
-        <v>3376</v>
+        <v>458</v>
       </c>
       <c r="N23" s="7">
-        <v>3385228</v>
+        <v>282759</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,63 +6571,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="7">
+        <v>5367</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5367</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D26" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3376</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3376</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>81</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
